--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tgfb1-Eng.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H2">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J2">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>40.87795824038</v>
+        <v>114.155417</v>
       </c>
       <c r="N2">
-        <v>40.87795824038</v>
+        <v>342.466251</v>
       </c>
       <c r="O2">
-        <v>0.4366282170269207</v>
+        <v>0.6835107367845005</v>
       </c>
       <c r="P2">
-        <v>0.4366282170269207</v>
+        <v>0.6835107367845005</v>
       </c>
       <c r="Q2">
-        <v>2971.612747808951</v>
+        <v>11291.42930506301</v>
       </c>
       <c r="R2">
-        <v>2971.612747808951</v>
+        <v>101622.8637455671</v>
       </c>
       <c r="S2">
-        <v>0.3321745087390879</v>
+        <v>0.5550671168845248</v>
       </c>
       <c r="T2">
-        <v>0.3321745087390879</v>
+        <v>0.5550671168845248</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H3">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I3">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J3">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>35.9153102435356</v>
+        <v>35.924535</v>
       </c>
       <c r="N3">
-        <v>35.9153102435356</v>
+        <v>107.773605</v>
       </c>
       <c r="O3">
-        <v>0.3836208693053813</v>
+        <v>0.2150997826628812</v>
       </c>
       <c r="P3">
-        <v>0.3836208693053813</v>
+        <v>0.2150997826628812</v>
       </c>
       <c r="Q3">
-        <v>2610.85431746876</v>
+        <v>3553.395519283695</v>
       </c>
       <c r="R3">
-        <v>2610.85431746876</v>
+        <v>31980.55967355326</v>
       </c>
       <c r="S3">
-        <v>0.2918480043989463</v>
+        <v>0.1746787720802352</v>
       </c>
       <c r="T3">
-        <v>0.2918480043989463</v>
+        <v>0.1746787720802352</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.69474493649091</v>
+        <v>98.91277700000001</v>
       </c>
       <c r="H4">
-        <v>72.69474493649091</v>
+        <v>296.738331</v>
       </c>
       <c r="I4">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="J4">
-        <v>0.7607719698028754</v>
+        <v>0.8120825131376513</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.8286199930255</v>
+        <v>16.93339666666667</v>
       </c>
       <c r="N4">
-        <v>16.8286199930255</v>
+        <v>50.80019</v>
       </c>
       <c r="O4">
-        <v>0.1797509136676981</v>
+        <v>0.1013894805526183</v>
       </c>
       <c r="P4">
-        <v>0.1797509136676981</v>
+        <v>0.1013894805526183</v>
       </c>
       <c r="Q4">
-        <v>1223.35223802612</v>
+        <v>1674.929288342543</v>
       </c>
       <c r="R4">
-        <v>1223.35223802612</v>
+        <v>15074.36359508289</v>
       </c>
       <c r="S4">
-        <v>0.1367494566648413</v>
+        <v>0.08233662417289134</v>
       </c>
       <c r="T4">
-        <v>0.1367494566648413</v>
+        <v>0.08233662417289134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H5">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I5">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J5">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>40.87795824038</v>
+        <v>114.155417</v>
       </c>
       <c r="N5">
-        <v>40.87795824038</v>
+        <v>342.466251</v>
       </c>
       <c r="O5">
-        <v>0.4366282170269207</v>
+        <v>0.6835107367845005</v>
       </c>
       <c r="P5">
-        <v>0.4366282170269207</v>
+        <v>0.6835107367845005</v>
       </c>
       <c r="Q5">
-        <v>695.8692158554016</v>
+        <v>1946.192629788986</v>
       </c>
       <c r="R5">
-        <v>695.8692158554016</v>
+        <v>17515.73366810087</v>
       </c>
       <c r="S5">
-        <v>0.07778604903813777</v>
+        <v>0.09567146042658196</v>
       </c>
       <c r="T5">
-        <v>0.07778604903813777</v>
+        <v>0.09567146042658196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H6">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I6">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J6">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.9153102435356</v>
+        <v>35.924535</v>
       </c>
       <c r="N6">
-        <v>35.9153102435356</v>
+        <v>107.773605</v>
       </c>
       <c r="O6">
-        <v>0.3836208693053813</v>
+        <v>0.2150997826628812</v>
       </c>
       <c r="P6">
-        <v>0.3836208693053813</v>
+        <v>0.2150997826628812</v>
       </c>
       <c r="Q6">
-        <v>611.3896058459367</v>
+        <v>612.4638416904601</v>
       </c>
       <c r="R6">
-        <v>611.3896058459367</v>
+        <v>5512.174575214141</v>
       </c>
       <c r="S6">
-        <v>0.06834270115438185</v>
+        <v>0.03010766215847522</v>
       </c>
       <c r="T6">
-        <v>0.06834270115438185</v>
+        <v>0.03010766215847522</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.0230913139886</v>
+        <v>17.04862266666667</v>
       </c>
       <c r="H7">
-        <v>17.0230913139886</v>
+        <v>51.14586800000001</v>
       </c>
       <c r="I7">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="J7">
-        <v>0.1781516768838185</v>
+        <v>0.1399706767982279</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.8286199930255</v>
+        <v>16.93339666666667</v>
       </c>
       <c r="N7">
-        <v>16.8286199930255</v>
+        <v>50.80019</v>
       </c>
       <c r="O7">
-        <v>0.1797509136676981</v>
+        <v>0.1013894805526183</v>
       </c>
       <c r="P7">
-        <v>0.1797509136676981</v>
+        <v>0.1013894805526183</v>
       </c>
       <c r="Q7">
-        <v>286.4751348296873</v>
+        <v>288.6910902349912</v>
       </c>
       <c r="R7">
-        <v>286.4751348296873</v>
+        <v>2598.21981211492</v>
       </c>
       <c r="S7">
-        <v>0.03202292669129891</v>
+        <v>0.01419155421317076</v>
       </c>
       <c r="T7">
-        <v>0.03202292669129891</v>
+        <v>0.01419155421317076</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H8">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I8">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J8">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>40.87795824038</v>
+        <v>114.155417</v>
       </c>
       <c r="N8">
-        <v>40.87795824038</v>
+        <v>342.466251</v>
       </c>
       <c r="O8">
-        <v>0.4366282170269207</v>
+        <v>0.6835107367845005</v>
       </c>
       <c r="P8">
-        <v>0.4366282170269207</v>
+        <v>0.6835107367845005</v>
       </c>
       <c r="Q8">
-        <v>238.5672413016626</v>
+        <v>666.6662654149961</v>
       </c>
       <c r="R8">
-        <v>238.5672413016626</v>
+        <v>5999.996388734965</v>
       </c>
       <c r="S8">
-        <v>0.02666765924969509</v>
+        <v>0.03277215947339365</v>
       </c>
       <c r="T8">
-        <v>0.02666765924969509</v>
+        <v>0.03277215947339364</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H9">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I9">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J9">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>35.9153102435356</v>
+        <v>35.924535</v>
       </c>
       <c r="N9">
-        <v>35.9153102435356</v>
+        <v>107.773605</v>
       </c>
       <c r="O9">
-        <v>0.3836208693053813</v>
+        <v>0.2150997826628812</v>
       </c>
       <c r="P9">
-        <v>0.3836208693053813</v>
+        <v>0.2150997826628812</v>
       </c>
       <c r="Q9">
-        <v>209.6048054775346</v>
+        <v>209.79885330558</v>
       </c>
       <c r="R9">
-        <v>209.6048054775346</v>
+        <v>1888.18967975022</v>
       </c>
       <c r="S9">
-        <v>0.02343016375205308</v>
+        <v>0.01031334842417081</v>
       </c>
       <c r="T9">
-        <v>0.02343016375205308</v>
+        <v>0.01031334842417081</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.83608505832861</v>
+        <v>5.839988000000001</v>
       </c>
       <c r="H10">
-        <v>5.83608505832861</v>
+        <v>17.519964</v>
       </c>
       <c r="I10">
-        <v>0.06107635331330608</v>
+        <v>0.0479468100641207</v>
       </c>
       <c r="J10">
-        <v>0.06107635331330608</v>
+        <v>0.04794681006412069</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.8286199930255</v>
+        <v>16.93339666666667</v>
       </c>
       <c r="N10">
-        <v>16.8286199930255</v>
+        <v>50.80019</v>
       </c>
       <c r="O10">
-        <v>0.1797509136676981</v>
+        <v>0.1013894805526183</v>
       </c>
       <c r="P10">
-        <v>0.1797509136676981</v>
+        <v>0.1013894805526183</v>
       </c>
       <c r="Q10">
-        <v>98.21325769358624</v>
+        <v>98.89083333257335</v>
       </c>
       <c r="R10">
-        <v>98.21325769358624</v>
+        <v>890.0174999931601</v>
       </c>
       <c r="S10">
-        <v>0.01097853031155791</v>
+        <v>0.004861302166556251</v>
       </c>
       <c r="T10">
-        <v>0.01097853031155791</v>
+        <v>0.00486130216655625</v>
       </c>
     </row>
   </sheetData>
